--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-18.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-18.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1699,17 +1699,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Felix Okpara</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1718,25 +1718,25 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>27</v>
@@ -1760,47 +1760,47 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -1821,12 +1821,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1836,32 +1836,32 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>14</v>
+      </c>
+      <c r="J23" t="n">
         <v>4</v>
       </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>7</v>
-      </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -2370,17 +2370,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2392,25 +2392,25 @@
         <v>12</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J32" t="n">
         <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -2431,47 +2431,47 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I33" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -3041,17 +3041,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3060,16 +3060,16 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
@@ -3102,17 +3102,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3127,10 +3127,10 @@
         <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -3139,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
@@ -3163,32 +3163,32 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -3200,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O45" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
@@ -4276,32 +4276,32 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
+        <v>13</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2</v>
+      </c>
+      <c r="K63" t="n">
         <v>5</v>
       </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>3</v>
       </c>
-      <c r="L63" t="n">
-        <v>2</v>
-      </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O63" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
@@ -5115,47 +5115,47 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H77" t="n">
         <v>9</v>
       </c>
       <c r="I77" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5195,28 +5195,28 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I78" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K78" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5378,28 +5378,28 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I81" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J81" t="n">
+        <v>8</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
         <v>4</v>
       </c>
-      <c r="K81" t="n">
-        <v>1</v>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
       <c r="N81" t="n">
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
@@ -5420,17 +5420,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5439,28 +5439,28 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I82" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -5481,17 +5481,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5506,22 +5506,22 @@
         <v>12</v>
       </c>
       <c r="J83" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
@@ -5542,12 +5542,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5561,28 +5561,28 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I84" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J84" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O84" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -5603,17 +5603,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5622,28 +5622,28 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I85" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J85" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86">
@@ -5664,47 +5664,47 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I86" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J86" t="n">
+        <v>4</v>
+      </c>
+      <c r="K86" t="n">
         <v>5</v>
       </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O86" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
@@ -5725,17 +5725,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5744,28 +5744,28 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I87" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J87" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K87" t="n">
         <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O87" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
@@ -5786,12 +5786,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5801,32 +5801,32 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H88" t="n">
         <v>13</v>
       </c>
       <c r="I88" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J88" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
@@ -5847,17 +5847,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -5866,28 +5866,28 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J89" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O89" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
@@ -5908,17 +5908,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -5930,25 +5930,25 @@
         <v>12</v>
       </c>
       <c r="I90" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J90" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O90" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91">
@@ -5969,17 +5969,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -5991,25 +5991,25 @@
         <v>12</v>
       </c>
       <c r="I91" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
@@ -6030,17 +6030,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6049,19 +6049,19 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I92" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93">
@@ -6091,32 +6091,32 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
@@ -6125,13 +6125,13 @@
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
@@ -6152,17 +6152,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6174,25 +6174,25 @@
         <v>11</v>
       </c>
       <c r="I94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95">
@@ -6213,17 +6213,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6235,25 +6235,25 @@
         <v>11</v>
       </c>
       <c r="I95" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -6274,17 +6274,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6293,28 +6293,28 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I96" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
@@ -6335,17 +6335,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6357,25 +6357,25 @@
         <v>10</v>
       </c>
       <c r="I97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
@@ -6396,17 +6396,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6418,25 +6418,25 @@
         <v>10</v>
       </c>
       <c r="I98" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J98" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
@@ -6457,12 +6457,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6479,25 +6479,25 @@
         <v>10</v>
       </c>
       <c r="I99" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J99" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K99" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
@@ -6518,17 +6518,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -6537,25 +6537,25 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I100" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O100" t="n">
         <v>29</v>
@@ -6579,36 +6579,36 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
         <v>3</v>
       </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
       <c r="L101" t="n">
         <v>0</v>
       </c>
@@ -6616,10 +6616,10 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O101" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
@@ -6640,17 +6640,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6662,16 +6662,16 @@
         <v>7</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -6680,7 +6680,7 @@
         <v>1</v>
       </c>
       <c r="O102" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
@@ -6701,17 +6701,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -6723,25 +6723,25 @@
         <v>7</v>
       </c>
       <c r="I103" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O103" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
@@ -6762,32 +6762,32 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H104" t="n">
         <v>7</v>
       </c>
       <c r="I104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105">
@@ -6823,17 +6823,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -6845,25 +6845,25 @@
         <v>7</v>
       </c>
       <c r="I105" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106">
@@ -6884,17 +6884,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -6906,25 +6906,25 @@
         <v>7</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J106" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O106" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
@@ -6945,17 +6945,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -6964,28 +6964,28 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
         <v>4</v>
       </c>
-      <c r="J107" t="n">
-        <v>3</v>
-      </c>
       <c r="K107" t="n">
         <v>1</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
@@ -7006,22 +7006,22 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -7031,22 +7031,22 @@
         <v>4</v>
       </c>
       <c r="J108" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O108" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -7738,17 +7738,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -7760,10 +7760,10 @@
         <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
@@ -7799,17 +7799,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -7818,10 +7818,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -7830,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M121" t="n">
         <v>0</v>
@@ -7839,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="O121" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
@@ -7860,17 +7860,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -7882,25 +7882,25 @@
         <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122" t="n">
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
@@ -7921,17 +7921,17 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -7943,10 +7943,10 @@
         <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -7955,13 +7955,13 @@
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O123" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124">
@@ -7982,17 +7982,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8004,25 +8004,25 @@
         <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O124" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -8043,47 +8043,47 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H125" t="n">
         <v>1</v>
       </c>
       <c r="I125" t="n">
+        <v>4</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
         <v>3</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0</v>
-      </c>
       <c r="L125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O125" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126">
@@ -8104,17 +8104,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8132,10 +8132,10 @@
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127">
@@ -8165,17 +8165,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -8184,16 +8184,16 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="O127" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
@@ -8226,17 +8226,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>TA&amp;M@TEX</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -8248,13 +8248,13 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
@@ -8263,10 +8263,10 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129">
@@ -8287,17 +8287,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Kam Williams</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>TA&amp;M@TEX</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
@@ -8327,7 +8327,7 @@
         <v>2</v>
       </c>
       <c r="O129" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130">
@@ -8348,17 +8348,17 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Kam Williams</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -8370,13 +8370,13 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
@@ -8385,10 +8385,10 @@
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O130" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131">
@@ -8409,17 +8409,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>FLA@VAN</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -8449,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="O131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -8470,17 +8470,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>FLA@VAN</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -8507,10 +8507,10 @@
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -8531,17 +8531,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -8556,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -8568,10 +8568,10 @@
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O133" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
@@ -8592,17 +8592,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Simon Walker</t>
+          <t>Sebastian Mack</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O134" t="n">
         <v>2</v>
@@ -8653,17 +8653,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Simon Walker</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -8690,10 +8690,10 @@
         <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O135" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -8733,7 +8733,7 @@
         </is>
       </c>
       <c r="H136" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -8775,17 +8775,17 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>Annor Boateng</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -8812,10 +8812,10 @@
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O137" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138">
@@ -8836,17 +8836,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Ethan Burg</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>ARK@UGA</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -8897,35 +8897,35 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>ARK@UGA</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H139" t="n">
         <v>-1</v>
       </c>
       <c r="I139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139" t="n">
         <v>0</v>
@@ -8934,10 +8934,10 @@
         <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -8958,7 +8958,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -8973,14 +8973,14 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H140" t="n">
         <v>-1</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="O140" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
@@ -9019,17 +9019,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ALA@OU</t>
+          <t>MISS@MSST</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -9041,10 +9041,10 @@
         <v>-1</v>
       </c>
       <c r="I141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
@@ -9053,13 +9053,13 @@
         <v>0</v>
       </c>
       <c r="M141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N141" t="n">
         <v>0</v>
       </c>
       <c r="O141" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -9080,17 +9080,17 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>ALA@OU</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -9102,10 +9102,10 @@
         <v>-1</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K142" t="n">
         <v>0</v>
@@ -9114,13 +9114,13 @@
         <v>0</v>
       </c>
       <c r="M142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N142" t="n">
         <v>0</v>
       </c>
       <c r="O142" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143">
@@ -9141,17 +9141,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -9202,17 +9202,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Christ Essandoko</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>SC@AUB</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -9221,10 +9221,10 @@
         </is>
       </c>
       <c r="H144" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -9263,17 +9263,17 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>Christ Essandoko</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>UK@TENN</t>
+          <t>SC@AUB</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -9285,13 +9285,13 @@
         <v>-2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -9300,10 +9300,10 @@
         <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O145" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
@@ -9324,17 +9324,17 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Mazi Mosley</t>
+          <t>Troy Henderson</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>MIZ@LSU</t>
+          <t>UK@TENN</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -9343,7 +9343,7 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -9352,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146" t="n">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="O146" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147">
@@ -9385,32 +9385,32 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Mazi Mosley</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>MISS@MSST</t>
+          <t>MIZ@LSU</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>10:22 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="O147" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -9541,7 +9541,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
